--- a/Translation Script/Map029.xlsx
+++ b/Translation Script/Map029.xlsx
@@ -15,123 +15,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>日記確認</t>
+  </si>
+  <si>
+    <t>Check diary</t>
   </si>
   <si>
     <t>ここでは日記の回想、解放状況が確認できます。
 チェック模様の床は第2部の解放に必要な日記です。</t>
   </si>
   <si>
+    <t>Here you may recall your memories, and check how far you
+are from freedom. Entries on the checkered floor are\nrequired to reach the second floor.</t>
+  </si>
+  <si>
     <t>回想終了</t>
   </si>
   <si>
+    <t>End memory</t>
+  </si>
+  <si>
     <t>リリーの日記</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
   </si>
   <si>
     <t>リリーの日記
 ミスト屋敷襲撃</t>
   </si>
   <si>
+    <t>Lily's Diary
+Mansion mist attack</t>
+  </si>
+  <si>
     <t>読んでみる</t>
   </si>
   <si>
+    <t>Read</t>
+  </si>
+  <si>
     <t>やめておく</t>
+  </si>
+  <si>
+    <t>Stop reading</t>
   </si>
   <si>
     <t>リリーの日記
 シィナとの出会い</t>
   </si>
   <si>
+    <t>Lily's Diary
+Meeting with Shina</t>
+  </si>
+  <si>
     <t>リリーの日記
 ライムとの出会い</t>
   </si>
   <si>
+    <t>Lily's Diary
+Meeting with Lime</t>
+  </si>
+  <si>
     <t>ライムの日記
 精奴隷さんに美味しいご飯を</t>
   </si>
   <si>
+    <t>Lime's Diary
+A delicious meal for a semen slave</t>
+  </si>
+  <si>
     <t>ライムの日記
 お風呂でピザ</t>
   </si>
   <si>
+    <t>Lime's Diary
+Pizza in the bath</t>
+  </si>
+  <si>
     <t>ライムの日記</t>
   </si>
   <si>
+    <t>Lime's Diary</t>
+  </si>
+  <si>
     <t>ヒントを見る</t>
   </si>
   <si>
+    <t>See a hint</t>
+  </si>
+  <si>
     <t>自力で探す</t>
   </si>
   <si>
+    <t>Search for yourself</t>
+  </si>
+  <si>
     <t>浴場で入手できます。</t>
   </si>
   <si>
+    <t>Found in the bath house.</t>
+  </si>
+  <si>
     <t>答えを見る</t>
+  </si>
+  <si>
+    <t>See answer</t>
   </si>
   <si>
     <t>浴場の左側へフックショットで飛び
 暖炉の火を氷属性の攻撃で全て消してください。</t>
   </si>
   <si>
+    <t>Hookshot to the left side of the bath house.
+Extinguish all fireplaces using ice attacks.</t>
+  </si>
+  <si>
     <t>ライムの日記
 水かけ論</t>
   </si>
   <si>
+    <t>Lime's Diary
+Pointless argument</t>
+  </si>
+  <si>
     <t>応接室で入手できます。</t>
+  </si>
+  <si>
+    <t>Found in the parlor.</t>
   </si>
   <si>
     <t>応接室の暖炉の火を氷属性の攻撃で消し、
 隠し通路から倉庫に入ってください。</t>
   </si>
   <si>
+    <t>Extinguish the fireplace in the parlor with an
+ice attack. Enter the warehouse via the hidden passage.</t>
+  </si>
+  <si>
     <t>ライムの日記
 見られているような・・・</t>
   </si>
   <si>
+    <t>Lime's Diary
+Being watched…</t>
+  </si>
+  <si>
     <t>ライムの日記
 誘惑して脱獄</t>
   </si>
   <si>
+    <t>Lime's Diary
+Jailbreak seduction</t>
+  </si>
+  <si>
     <t>バルコニーで入手できます。</t>
+  </si>
+  <si>
+    <t>Found on the balcony.</t>
   </si>
   <si>
     <t>バルコニーの左端からプラスショットを装備したまま
 フックショットを撃って煙突に引っかけてください。</t>
   </si>
   <si>
+    <t>From the left end of the balcony, with Plus Shot 
+equipped, fire the hookshot to the chimney.</t>
+  </si>
+  <si>
     <t>リリーの日記
 しましまはマゾ</t>
   </si>
   <si>
+    <t>Lily's Diary
+Stripey is a masochist</t>
+  </si>
+  <si>
     <t>リリーの日記
 恋ってなに？</t>
   </si>
   <si>
+    <t>Lily's Diary
+What is love?</t>
+  </si>
+  <si>
     <t>リリーの日記
 シィナの精奴隷</t>
   </si>
   <si>
+    <t>Lily's Diary
+Shina's semen slave</t>
+  </si>
+  <si>
     <t>リリーの日記
 手配書を出そう</t>
   </si>
   <si>
+    <t>Lily's Diary
+Calling the search</t>
+  </si>
+  <si>
     <t>リリーの日記
 ライム式ダイエット</t>
   </si>
   <si>
+    <t>Lily's Diary
+Lime-style diet</t>
+  </si>
+  <si>
     <t>メイド室で入手できます。</t>
   </si>
   <si>
+    <t>Found in the maid's room.</t>
+  </si>
+  <si>
     <t>右下のベッドのクマのぬいぐるみを複数回調べてください。</t>
+  </si>
+  <si>
+    <t>Examine the bear on the lower right bed multiple times.</t>
   </si>
   <si>
     <t>リリーの日記
 恋愛小説</t>
   </si>
   <si>
+    <t>Lily's Diary
+Love story</t>
+  </si>
+  <si>
     <t>看板</t>
+  </si>
+  <si>
+    <t>Signboard</t>
   </si>
   <si>
     <t>→日記
@@ -139,8 +256,17 @@
 全て読むと2部シナリオが解放される</t>
   </si>
   <si>
+    <t>→Diaries
+Read once to unlock.
+Read them all to unlock part 2.</t>
+  </si>
+  <si>
     <t>ライムの日記
 宝物</t>
+  </si>
+  <si>
+    <t>Lime's Diary
+Treasure</t>
   </si>
   <si>
     <t>ロメリアの日記
@@ -148,92 +274,185 @@
 男主人公、SAN値が高く精力が低い状態で話しかける</t>
   </si>
   <si>
+    <t>Meria's Diary Unlocked after hearing Meria's past.
+Male protagonist will discuss while sanity is high
+and energy is low.</t>
+  </si>
+  <si>
     <t>ロメリアの日記
 ふたなり淫魔に襲われて</t>
   </si>
   <si>
+    <t>Meria's Diary
+Attacked by a futanari succubus</t>
+  </si>
+  <si>
     <t>リリーの日記
 知識VS直感</t>
   </si>
   <si>
+    <t>Lily's Diary
+Knowledge VS Intuition</t>
+  </si>
+  <si>
     <t>倉庫で入手できます。</t>
   </si>
   <si>
+    <t>Found in the warehouse.</t>
+  </si>
+  <si>
     <t>灯りを付けることで読めるようになります。</t>
+  </si>
+  <si>
+    <t>Read it by turning on the light.</t>
   </si>
   <si>
     <t>リリーの日記
 オークはどこから</t>
   </si>
   <si>
+    <t>Lily's Diary
+Where are orcs from?</t>
+  </si>
+  <si>
     <t>アーコの帳簿
 アーコに15000G貢ぐとアーコの近くに帳簿が出現</t>
   </si>
   <si>
+    <t>Ako's Ledger
+The ledger will appear near Ako after giving her 15000G</t>
+  </si>
+  <si>
     <t>アーコの帳簿
 再会</t>
   </si>
   <si>
+    <t>Ako's Ledger
+Reunion</t>
+  </si>
+  <si>
     <t>アーコの帳簿
 アーコに30000G貢ぐとアーコの近くに帳簿が出現</t>
   </si>
   <si>
+    <t>Ako's Ledger
+The ledger will appear near Ako after giving her 30000G</t>
+  </si>
+  <si>
     <t>アーコの帳簿
 例のブツ</t>
   </si>
   <si>
+    <t>Ako's Ledger
+The Usual</t>
+  </si>
+  <si>
     <t>アーコの帳簿
 アーコに50000G貢ぐとアーコの近くに帳簿が出現</t>
   </si>
   <si>
+    <t>Ako's Ledger
+The ledger will appear near Ako after giving her 50000G</t>
+  </si>
+  <si>
     <t>アーコの帳簿
 レストランを開こう</t>
   </si>
   <si>
+    <t>Ako's Ledger
+Opening a restaurant</t>
+  </si>
+  <si>
     <t>ライムの日記
 ※ライム依存度が3以上でライムの部屋に出現</t>
   </si>
   <si>
+    <t>Lime's Diary
+※Found in Lime's room when Lime's reliance is 3 or higher.</t>
+  </si>
+  <si>
     <t>ライムの日記
 脱走者</t>
   </si>
   <si>
+    <t>Lime's Diary
+Fugitive</t>
+  </si>
+  <si>
     <t>シィナの落書き帳
 ※シィナ依存度が3以上でシィナの部屋に出現</t>
   </si>
   <si>
+    <t>Shina's Scratchpad
+※Found in Shina's room when Shina's relianceis 3 or higher.</t>
+  </si>
+  <si>
     <t>シィナの落書き帳
 猫の生き方</t>
   </si>
   <si>
+    <t>Shina's Scratchpad
+Cat lifestyle</t>
+  </si>
+  <si>
     <t>チョコレの実験記録
 淫魔の生態</t>
   </si>
   <si>
+    <t>Chocolate's Lab Records
+Succubus ecology</t>
+  </si>
+  <si>
     <t>チョコレの実験記録
 機械の使い方</t>
   </si>
   <si>
+    <t>Chocolate's Lab Records
+How to use the machine</t>
+  </si>
+  <si>
     <t>チョコレの実験記録
 淫魔化実験成功！</t>
   </si>
   <si>
+    <t>Chocolate's Lab Records
+Succubus-ification success!</t>
+  </si>
+  <si>
     <t>チョコレの実験記録
 魔力の集め方</t>
   </si>
   <si>
+    <t>Chocolate's Lab Records
+How to collect magic</t>
+  </si>
+  <si>
     <t>チョコレの実験記録
 創作料理</t>
   </si>
   <si>
+    <t>Chocolate's Lab Records
+Creative cuisine</t>
+  </si>
+  <si>
     <t>→第2部の日記</t>
+  </si>
+  <si>
+    <t>→2nd floor diaries</t>
   </si>
   <si>
     <t>チョコレの実験記録
 旗上げ</t>
   </si>
   <si>
+    <t>Chocolate's Lab Records
+Raising the banner</t>
+  </si>
+  <si>
     <t>→その他の日記</t>
+  </si>
+  <si>
+    <t>→Other diaries</t>
   </si>
 </sst>
 </file>
@@ -572,7 +791,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,299 +799,476 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
